--- a/Assessment_QA.xlsx
+++ b/Assessment_QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/navyrai_cisco_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1359" documentId="8_{E1D67FBA-E501-499C-88A4-72196A8062FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A77A6A92-8D2A-4E68-AA3B-A5B7E2D594F3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D6D6548E-2F61-48DA-A498-FBC8E2128725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E69174A-0AFB-4022-9DC8-B26F66AD540A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="777" xr2:uid="{67312112-DDCE-4ABD-836C-787597AADBE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="777" activeTab="3" xr2:uid="{67312112-DDCE-4ABD-836C-787597AADBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN_MODULE " sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="390">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -844,9 +844,6 @@
 3. Navigate to the cart page.</t>
   </si>
   <si>
-    <t xml:space="preserve">User should be able to see the products which are added before logging out </t>
-  </si>
-  <si>
     <t>Provide below valid username and password
 username  : standard_user
 Password :  secret_sauce</t>
@@ -859,10 +856,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">User shouldn’t see any items/product in the cart 
-User shouldn't see any other user added proudct in his/her cart </t>
-  </si>
-  <si>
     <t>Cart Page_With_Problem_user</t>
   </si>
   <si>
@@ -1051,10 +1044,6 @@
   <si>
     <t xml:space="preserve">Sheet Name           : PRODUCT LISTING PAGE
  Test ID                       : TC_ADD_CART_01 to TC_ADD_CART_03 </t>
-  </si>
-  <si>
-    <t>Sheet Name           : PRODUCT LISTING PAGE
-Test ID                      : TC_CART_PG_01</t>
   </si>
   <si>
     <t xml:space="preserve">Filter and Sort Options - Product Name - A to Z </t>
@@ -1397,10 +1386,6 @@
     <t>Verify that the order is cancelled when the Cancel button is clicked.</t>
   </si>
   <si>
-    <t>The order process should be cancelled.
-The user should be redirected back to the product listing page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify thet Back to home will navigte to product lisring page </t>
   </si>
   <si>
@@ -1409,9 +1394,6 @@
   <si>
     <t xml:space="preserve">1. Click the Finish button in check out overview page 
 2. Obervew the Checkout Complete page and  Click onBack to Home </t>
-  </si>
-  <si>
-    <t>The user should be redirected back to the product listing page</t>
   </si>
   <si>
     <t>TC_CHK_OT_08</t>
@@ -1471,11 +1453,6 @@
 4. There should be Cancel and Finish buttons.</t>
   </si>
   <si>
-    <t xml:space="preserve">The order is completed, and the user is redirected to the below order confirmation page.
-Thank you for your order!
-Your order has been dispatched, and will arrive just as fast as the pony can get there! and with Back Home button </t>
-  </si>
-  <si>
     <t>Login Functionality For STANDARD USER</t>
   </si>
   <si>
@@ -1491,22 +1468,10 @@
     <t>Login Functionality For visual_user</t>
   </si>
   <si>
-    <t>TC_LOGOUT_01</t>
-  </si>
-  <si>
     <t>Logout Functionality</t>
   </si>
   <si>
-    <t>Verify Logout Functionality</t>
-  </si>
-  <si>
     <t>User has successfully logged in</t>
-  </si>
-  <si>
-    <t>The user should be logged out and redirected to the login page.</t>
-  </si>
-  <si>
-    <t>Logout Page</t>
   </si>
   <si>
     <t>User has valid login credentials.
@@ -1612,16 +1577,7 @@
     <t>Verify functionality of the OK button on the pop-up.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Navigate to Saudedemo page
-2. Click on the menu button (three lines) in the top left corner.
-Click on the Logout Button .
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pop-up page - Check OK button functionality </t>
-  </si>
-  <si>
-    <t>Product Listing,Add To cart,Check Out,Complete Checkout</t>
   </si>
   <si>
     <t>Product Display -  Page Load</t>
@@ -1676,6 +1632,160 @@
   </si>
   <si>
     <t>User is on the login page</t>
+  </si>
+  <si>
+    <t>TC_SIDEBAR_MENU_01</t>
+  </si>
+  <si>
+    <t>Verify the sidebar menu displays correctly after login.</t>
+  </si>
+  <si>
+    <t>Sidebar Menu Display</t>
+  </si>
+  <si>
+    <t>Username: standard_user
+Password: secret_sauce</t>
+  </si>
+  <si>
+    <t>User has valid login credentials.
+User has successfully logged in to the Sauce Demo site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Items  Menu Option</t>
+  </si>
+  <si>
+    <t>Verify the All Items menu option navigates to the product page.</t>
+  </si>
+  <si>
+    <t>1. Open the Sauce Demo website.
+2. Enter valid username and password.
+3. Click on the Login button.
+4 . Observe the sidebar menu on the product page.</t>
+  </si>
+  <si>
+    <t>1.Open the Sauce Demo website.
+2. Enter valid username and password.
+3. Click on the Login button.
+4. Click on the sidebar menu button to expand it.
+5 . Click on the  About menu  option.</t>
+  </si>
+  <si>
+    <t>1.Open the Sauce Demo website.
+2. Enter valid username and password.
+3. Click on the Login button.
+4. Click on the sidebar menu button to expand it.
+5 . Click on the All items   menu option.</t>
+  </si>
+  <si>
+    <t>1.Open the Sauce Demo website.
+2. Enter valid username and password.
+3. Click on the Login button.
+4. Click on the sidebar menu button to expand it.
+5 . Click on the  Logout  menu  option.</t>
+  </si>
+  <si>
+    <t>TC_SIDEBAR_MENU_02</t>
+  </si>
+  <si>
+    <t>TC_SIDEBAR_MENU_03</t>
+  </si>
+  <si>
+    <t>TC_SIDEBAR_MENU_04</t>
+  </si>
+  <si>
+    <t>Aboutproduct Menu Option</t>
+  </si>
+  <si>
+    <t>Verify productAboutproduct Menu Option</t>
+  </si>
+  <si>
+    <t>productLogoutproduct menu option logs the user out and redirects to the login page.</t>
+  </si>
+  <si>
+    <t>Verify the productLogoutproduct menu option logs the user out and redirects to the login page.</t>
+  </si>
+  <si>
+    <t>Reset App State Menu Option</t>
+  </si>
+  <si>
+    <t>User has valid login credentials.
+User has successfully logged in to the Sauce Demo site.
+User has added items to the cart or performed other actions that can be reset.</t>
+  </si>
+  <si>
+    <t>1.Open the Sauce Demo website.
+2. Enter valid username and password.
+3. Click on the Login button.
+4. Click on the sidebar menu button to expand it.
+5 . Click on the  Reset App State  menu  option.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The order is completed, and the user is redirected to the below order confirmation page.
+Thank you for your order!
+Your order has been dispatched, and will arrive just as fast as the pony can get there! and with Back Home button </t>
+  </si>
+  <si>
+    <t>1. The user should be redirected back to the product listing page</t>
+  </si>
+  <si>
+    <t>1. The order process should be cancelled.
+2. The user should be redirected back to the product listing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to see the products which are added before logging out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The product  page loads without any errors and displays all products.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User shouldn’t see any items/product in the cart 
+2. User shouldn't see any other user added proudct in his/her cart </t>
+  </si>
+  <si>
+    <t>1. The sidebar menu should be visible on the left side of the page.
+2. The sidebar menu should contain the following options: All Items, About, Logout, and Reset App State.</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the product page.</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the About page.</t>
+  </si>
+  <si>
+    <t>1. User should be logged out and redirected to the login page.</t>
+  </si>
+  <si>
+    <t>1. The application state should be reset.
+2.All items should be removed from the cart.
+3 . Any other changes should be reverted.</t>
+  </si>
+  <si>
+    <t>Verify Reset App State Menu Option</t>
+  </si>
+  <si>
+    <t>Verify the Reset App State menu option resets the application state.</t>
+  </si>
+  <si>
+    <t>Side Bar Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User try to list about the products or about the application and reset the applcoation ststus </t>
+  </si>
+  <si>
+    <t>Username: standard_user
+Password: secret_sauce
+Prioduct : Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Product Listing,Add To cart,Check Out,Complete Checkout,Side Bar Menu Option ,Reset Application Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority  Rank </t>
+  </si>
+  <si>
+    <t>Sheet Name           : PRODUCT LISTING PAGE
+Test ID                      : TC_CART_PG_01 to TC_CART_PG_05</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1770,9 +1880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1813,10 +1920,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2136,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8BE5A8-B288-41F7-BC56-26EF05BF6D1D}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,585 +2260,2061 @@
     <col min="11" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C16" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="H16" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E17" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E19" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="E21" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="H21" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="E23" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E24" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="E26" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E27" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="H27" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="H28" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2749,25 +4328,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA61B65F-699F-4680-8624-3BDF13300B44}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A30" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="55.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.36328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="51.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="71.7265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="67.36328125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="26.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="55.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.36328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="51.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="71.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="67.36328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2779,12 +4359,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>346</v>
+      <c r="B2" s="13" t="s">
+        <v>387</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2810,7 +4390,9 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2826,1099 +4408,1209 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="F50" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H50" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="13" t="s">
+    </row>
+    <row r="51" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="145" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B46" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3929,10 +5621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF61EBF9-C9D3-485D-8418-3B8B56243465}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,14 +5634,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -3958,10 +5650,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3969,10 +5661,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3980,10 +5672,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3994,10 +5686,21 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A56BA-8610-424D-9FDF-7E1C4B95062F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4022,51 +5725,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>192</v>
+      <c r="C3" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -4074,21 +5777,21 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment_QA.xlsx
+++ b/Assessment_QA.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/navyrai_cisco_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D6D6548E-2F61-48DA-A498-FBC8E2128725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E69174A-0AFB-4022-9DC8-B26F66AD540A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D6D6548E-2F61-48DA-A498-FBC8E2128725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A90C596-A805-42AC-84EC-BAEBE6DEC0C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="777" activeTab="3" xr2:uid="{67312112-DDCE-4ABD-836C-787597AADBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN_MODULE " sheetId="1" r:id="rId1"/>
-    <sheet name="PRODUCT_LISTING_PAGE" sheetId="3" r:id="rId2"/>
+    <sheet name="PRODUCT_HOME_PAGE" sheetId="3" r:id="rId2"/>
     <sheet name="CRITICAL_TC_PRIORITY" sheetId="4" r:id="rId3"/>
     <sheet name="Automated Smoke Test Suite" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="393">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -1034,18 +1034,6 @@
  Test ID                      :  TC_LOGN_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheet Name           : PRODUCT LISTING PAGE
-Test ID                      : TC_LOGN_02 </t>
-  </si>
-  <si>
-    <t>Sheet Name           : PRODUCT LISTING PAGE
- Test ID                      : TC_PRODUCT_01 to TC_PRODUCT_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet Name           : PRODUCT LISTING PAGE
- Test ID                       : TC_ADD_CART_01 to TC_ADD_CART_03 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Filter and Sort Options - Product Name - A to Z </t>
   </si>
   <si>
@@ -1784,8 +1772,30 @@
     <t xml:space="preserve">Priority  Rank </t>
   </si>
   <si>
-    <t>Sheet Name           : PRODUCT LISTING PAGE
+    <t xml:space="preserve">Checkout Page </t>
+  </si>
+  <si>
+    <t>Ensure Check out will happen smoothly without any error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet Name           : PRODUCT HOME PAGE
+Test ID                      : TC_LOGN_02 </t>
+  </si>
+  <si>
+    <t>Sheet Name           :  : PRODUCT HOME PAGE
+ Test ID                      : TC_PRODUCT_01 to TC_PRODUCT_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet Name           :  : PRODUCT HOME PAGE
+ Test ID                       : TC_ADD_CART_01 to TC_ADD_CART_03 </t>
+  </si>
+  <si>
+    <t>Sheet Name           :  : PRODUCT HOME PAGE
 Test ID                      : TC_CART_PG_01 to TC_CART_PG_05</t>
+  </si>
+  <si>
+    <t>Sheet Name :  : PRODUCT HOME PAGE
+Test ID : TC_CHK_OT_01 to TC_CHK_OT_11</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2304,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2342,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -2365,30 +2375,30 @@
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2411,30 +2421,30 @@
         <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2457,7 +2467,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -2466,21 +2476,21 @@
         <v>18</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2510,21 +2520,21 @@
         <v>22</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2544,7 +2554,7 @@
     </row>
     <row r="15" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="12" t="s">
@@ -2554,21 +2564,21 @@
         <v>21</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2591,30 +2601,30 @@
         <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2637,7 +2647,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>26</v>
@@ -2646,10 +2656,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>34</v>
@@ -2660,7 +2670,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2690,21 +2700,21 @@
         <v>21</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2734,21 +2744,21 @@
         <v>22</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2771,7 +2781,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>29</v>
@@ -2780,10 +2790,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>43</v>
@@ -2794,7 +2804,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2824,21 +2834,21 @@
         <v>21</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2868,21 +2878,21 @@
         <v>22</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2905,7 +2915,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>38</v>
@@ -2914,10 +2924,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>41</v>
@@ -2928,7 +2938,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -2958,21 +2968,21 @@
         <v>21</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3002,21 +3012,21 @@
         <v>22</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -3039,7 +3049,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>44</v>
@@ -3048,10 +3058,10 @@
         <v>18</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>45</v>
@@ -3062,7 +3072,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3092,21 +3102,21 @@
         <v>21</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -3126,7 +3136,7 @@
     </row>
     <row r="28" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="12" t="s">
@@ -3136,21 +3146,21 @@
         <v>22</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -4330,7 +4340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA61B65F-699F-4680-8624-3BDF13300B44}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -4364,7 +4374,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4439,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4447,7 +4457,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
@@ -4456,19 +4466,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="82" customHeight="1" x14ac:dyDescent="0.35">
@@ -4476,28 +4486,28 @@
         <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4505,19 +4515,19 @@
         <v>165</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>130</v>
@@ -4526,7 +4536,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4534,28 +4544,28 @@
         <v>166</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.35">
@@ -4566,22 +4576,22 @@
         <v>143</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>145</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>146</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4598,19 +4608,19 @@
         <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4624,19 +4634,19 @@
         <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4650,19 +4660,19 @@
         <v>76</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="101" customHeight="1" x14ac:dyDescent="0.35">
@@ -4670,7 +4680,7 @@
         <v>171</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>81</v>
@@ -4679,19 +4689,19 @@
         <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>82</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4699,25 +4709,25 @@
         <v>172</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4725,19 +4735,19 @@
         <v>173</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>87</v>
@@ -4745,7 +4755,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4753,19 +4763,19 @@
         <v>174</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>91</v>
@@ -4773,7 +4783,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4781,19 +4791,19 @@
         <v>175</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>90</v>
@@ -4801,7 +4811,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -4824,13 +4834,13 @@
         <v>98</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>99</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -4850,13 +4860,13 @@
         <v>136</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>137</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -4876,13 +4886,13 @@
         <v>140</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>141</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -4902,13 +4912,13 @@
         <v>106</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>142</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4928,13 +4938,13 @@
         <v>103</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -4954,13 +4964,13 @@
         <v>108</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>109</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="145" x14ac:dyDescent="0.35">
@@ -4968,28 +4978,28 @@
         <v>182</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4997,7 +5007,7 @@
         <v>183</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>113</v>
@@ -5006,19 +5016,19 @@
         <v>111</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>112</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -5026,7 +5036,7 @@
         <v>184</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>114</v>
@@ -5041,21 +5051,21 @@
         <v>120</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>123</v>
@@ -5070,42 +5080,42 @@
         <v>126</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="K33" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5113,7 +5123,7 @@
         <v>185</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>116</v>
@@ -5131,7 +5141,7 @@
         <v>122</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5139,28 +5149,28 @@
         <v>186</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5168,231 +5178,231 @@
         <v>187</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="K37" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="F38" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>276</v>
-      </c>
       <c r="K38" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="H39" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>285</v>
-      </c>
       <c r="K40" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="F42" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>290</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>127</v>
@@ -5410,13 +5420,13 @@
         <v>129</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.35">
@@ -5424,13 +5434,13 @@
         <v>188</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>70</v>
@@ -5439,13 +5449,13 @@
         <v>31</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -5459,158 +5469,158 @@
         <v>131</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="H47" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="G48" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>365</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="H51" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5694,10 +5704,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5710,10 +5720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A56BA-8610-424D-9FDF-7E1C4B95062F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" activeCellId="1" sqref="C9 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5758,7 +5768,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -5769,7 +5779,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>193</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -5780,7 +5790,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -5791,7 +5801,18 @@
         <v>189</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
